--- a/data_analysis/week/2.xlsx
+++ b/data_analysis/week/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27880" windowHeight="13000"/>
+    <workbookView windowWidth="24940" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>大区</t>
   </si>
   <si>
-    <t>管理中心</t>
+    <t>去敏</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -76,7 +76,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>A01东莞东部管理中心</t>
+    <t>A01东莞东部去敏</t>
   </si>
   <si>
     <t>50908521</t>
@@ -109,13 +109,13 @@
     <t>50904014</t>
   </si>
   <si>
-    <t>东莞万科松朗花园</t>
+    <t>东莞去敏松朗花园</t>
   </si>
   <si>
     <t>50900668</t>
   </si>
   <si>
-    <t>东莞万科金域缇香花园</t>
+    <t>东莞去敏金域缇香花园</t>
   </si>
   <si>
     <t>50834617</t>
@@ -151,7 +151,7 @@
     <t>50834621</t>
   </si>
   <si>
-    <t>东莞万科湖畔花园</t>
+    <t>东莞去敏湖畔花园</t>
   </si>
   <si>
     <t>50900926</t>
@@ -175,7 +175,7 @@
     <t>50834610</t>
   </si>
   <si>
-    <t>东莞常平万科城</t>
+    <t>东莞常平去敏城</t>
   </si>
   <si>
     <t>50834612</t>
@@ -202,7 +202,7 @@
     <t>东莞金域蓝湾</t>
   </si>
   <si>
-    <t>A02阵地经营体</t>
+    <t>A02去敏</t>
   </si>
   <si>
     <t>50834637</t>
@@ -226,7 +226,7 @@
     <t>50834630</t>
   </si>
   <si>
-    <t>东莞虎门万科城</t>
+    <t>东莞虎门去敏城</t>
   </si>
   <si>
     <t>50834622</t>
@@ -292,13 +292,13 @@
     <t>50834639</t>
   </si>
   <si>
-    <t>东莞万科云广场</t>
+    <t>东莞去敏云广场</t>
   </si>
   <si>
     <t>50834631</t>
   </si>
   <si>
-    <t>东莞虎门万科花园</t>
+    <t>东莞虎门去敏花园</t>
   </si>
   <si>
     <t>50905744</t>
@@ -361,7 +361,7 @@
     <t>东莞翰林城市花园</t>
   </si>
   <si>
-    <t>A03阵地经营体</t>
+    <t>A03去敏</t>
   </si>
   <si>
     <t>50900315</t>
@@ -454,7 +454,7 @@
     <t>K卓弘高尔夫雅苑</t>
   </si>
   <si>
-    <t>A04深圳西部管理中心</t>
+    <t>A04深圳西部去敏</t>
   </si>
   <si>
     <t>50900313</t>
@@ -484,7 +484,7 @@
     <t>50834657</t>
   </si>
   <si>
-    <t>深圳万科云城</t>
+    <t>深圳去敏云城</t>
   </si>
   <si>
     <t>50834665</t>
@@ -496,7 +496,7 @@
     <t>50908379</t>
   </si>
   <si>
-    <t>深圳万科蛇口公馆</t>
+    <t>深圳去敏蛇口公馆</t>
   </si>
   <si>
     <t>50834660</t>
@@ -547,7 +547,7 @@
     <t>Q深圳浪琴屿花园</t>
   </si>
   <si>
-    <t>A05阵地经营体</t>
+    <t>A05去敏</t>
   </si>
   <si>
     <t>50834685</t>
@@ -670,7 +670,7 @@
     <t>C深圳英才大厦</t>
   </si>
   <si>
-    <t>A06深圳东部管理中心</t>
+    <t>A06深圳东部去敏</t>
   </si>
   <si>
     <t>50834704</t>
@@ -730,7 +730,7 @@
     <t>50834672</t>
   </si>
   <si>
-    <t>万科红物业服务中心</t>
+    <t>去敏红物业服务中心</t>
   </si>
   <si>
     <t>50834701</t>
@@ -829,7 +829,7 @@
     <t>深圳东海岸</t>
   </si>
   <si>
-    <t>A07厦门城区管理中心</t>
+    <t>A07厦门城区去敏</t>
   </si>
   <si>
     <t>50834729</t>
@@ -859,7 +859,7 @@
     <t>50834725</t>
   </si>
   <si>
-    <t>厦门海沧万科城</t>
+    <t>厦门海沧去敏城</t>
   </si>
   <si>
     <t>50901105</t>
@@ -895,7 +895,7 @@
     <t>50834730</t>
   </si>
   <si>
-    <t>厦门万科广场</t>
+    <t>厦门去敏广场</t>
   </si>
   <si>
     <t>50834728</t>
@@ -928,13 +928,13 @@
     <t>K厦门育秀中心</t>
   </si>
   <si>
-    <t>A08阵地经营体</t>
+    <t>A08去敏</t>
   </si>
   <si>
     <t>50834742</t>
   </si>
   <si>
-    <t>福州万科城</t>
+    <t>福州去敏城</t>
   </si>
   <si>
     <t>50834735</t>
@@ -958,7 +958,7 @@
     <t>50905498</t>
   </si>
   <si>
-    <t>福州万科金融港中心</t>
+    <t>福州去敏金融港中心</t>
   </si>
   <si>
     <t>50900258</t>
@@ -994,7 +994,7 @@
     <t>50834743</t>
   </si>
   <si>
-    <t>福州万科广场</t>
+    <t>福州去敏广场</t>
   </si>
   <si>
     <t>50905164</t>
@@ -1042,7 +1042,7 @@
     <t>50834744</t>
   </si>
   <si>
-    <t>莆田万科城</t>
+    <t>莆田去敏城</t>
   </si>
   <si>
     <t>50901651</t>
@@ -1063,7 +1063,7 @@
     <t>Q莆田正鼎小镇</t>
   </si>
   <si>
-    <t>A09泉州城区管理中心</t>
+    <t>A09泉州城区去敏</t>
   </si>
   <si>
     <t>50834747</t>
@@ -1213,7 +1213,7 @@
     <t>50834769</t>
   </si>
   <si>
-    <t>泉州万科城</t>
+    <t>泉州去敏城</t>
   </si>
   <si>
     <t>50904578</t>
@@ -1228,13 +1228,13 @@
     <t>泉州城市之光</t>
   </si>
   <si>
-    <t>A10厦漳管理中心</t>
+    <t>A10厦漳去敏</t>
   </si>
   <si>
     <t>50834731</t>
   </si>
   <si>
-    <t>漳州万科城</t>
+    <t>漳州去敏城</t>
   </si>
   <si>
     <t>50900835</t>
@@ -1339,7 +1339,7 @@
     <t>K厦门国建东海岸</t>
   </si>
   <si>
-    <t>A11阵地经营体</t>
+    <t>A11去敏</t>
   </si>
   <si>
     <t>50834664</t>
@@ -1381,13 +1381,13 @@
     <t>50834671</t>
   </si>
   <si>
-    <t>深圳万科紫悦山</t>
+    <t>深圳去敏紫悦山</t>
   </si>
   <si>
     <t>50834670</t>
   </si>
   <si>
-    <t>深圳万科麓城</t>
+    <t>深圳去敏麓城</t>
   </si>
   <si>
     <t>50908461</t>
@@ -1405,7 +1405,7 @@
     <t>50834669</t>
   </si>
   <si>
-    <t>深圳万科城</t>
+    <t>深圳去敏城</t>
   </si>
   <si>
     <t>50834668</t>
@@ -1423,7 +1423,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>B01杭州城南管理中心</t>
+    <t>B01杭州城南去敏</t>
   </si>
   <si>
     <t>50905938</t>
@@ -1441,7 +1441,7 @@
     <t>50834797</t>
   </si>
   <si>
-    <t>杭州万科公望四期</t>
+    <t>杭州去敏公望四期</t>
   </si>
   <si>
     <t>50834788</t>
@@ -1507,7 +1507,7 @@
     <t>50904695</t>
   </si>
   <si>
-    <t>杭州万科公望五期</t>
+    <t>杭州去敏公望五期</t>
   </si>
   <si>
     <t>50834790</t>
@@ -1543,7 +1543,7 @@
     <t>50834798</t>
   </si>
   <si>
-    <t>杭州万科公望一二三期</t>
+    <t>杭州去敏公望一二三期</t>
   </si>
   <si>
     <t>50834784</t>
@@ -1558,7 +1558,7 @@
     <t>杭州锦浦江岸公寓</t>
   </si>
   <si>
-    <t>B02阵地经营体</t>
+    <t>B02去敏</t>
   </si>
   <si>
     <t>50834801</t>
@@ -1741,7 +1741,7 @@
     <t>温州学府雅园</t>
   </si>
   <si>
-    <t>B03阵地经营体</t>
+    <t>B03去敏</t>
   </si>
   <si>
     <t>50834833</t>
@@ -1753,7 +1753,7 @@
     <t>50834829</t>
   </si>
   <si>
-    <t>南昌地铁万科时代广场</t>
+    <t>南昌地铁去敏时代广场</t>
   </si>
   <si>
     <t>50834828</t>
@@ -1813,7 +1813,7 @@
     <t>50834836</t>
   </si>
   <si>
-    <t>南昌万科城</t>
+    <t>南昌去敏城</t>
   </si>
   <si>
     <t>50834839</t>
@@ -1843,7 +1843,7 @@
     <t>50834838</t>
   </si>
   <si>
-    <t>南昌万科金域小区</t>
+    <t>南昌去敏金域小区</t>
   </si>
   <si>
     <t>50907844</t>
@@ -1873,10 +1873,10 @@
     <t>50834837</t>
   </si>
   <si>
-    <t>南昌万科粹叠园</t>
-  </si>
-  <si>
-    <t>B04杭州城西管理中心</t>
+    <t>南昌去敏粹叠园</t>
+  </si>
+  <si>
+    <t>B04杭州城西去敏</t>
   </si>
   <si>
     <t>50834844</t>
@@ -2035,7 +2035,7 @@
     <t>杭州栖岚院一期</t>
   </si>
   <si>
-    <t>B05杭州城东管理中心</t>
+    <t>B05杭州城东去敏</t>
   </si>
   <si>
     <t>50834883</t>
@@ -2137,7 +2137,7 @@
     <t>50834884</t>
   </si>
   <si>
-    <t>杭州万科草庄</t>
+    <t>杭州去敏草庄</t>
   </si>
   <si>
     <t>50903170</t>
@@ -2182,7 +2182,7 @@
     <t>Z杭州三里新城桂苑</t>
   </si>
   <si>
-    <t>B06宁波西南管理中心</t>
+    <t>B06宁波西南去敏</t>
   </si>
   <si>
     <t>50834974</t>
@@ -2194,7 +2194,7 @@
     <t>50834946</t>
   </si>
   <si>
-    <t>宁波万科传奇里</t>
+    <t>宁波去敏传奇里</t>
   </si>
   <si>
     <t>50904452</t>
@@ -2296,7 +2296,7 @@
     <t>50906332</t>
   </si>
   <si>
-    <t>宁波万科桂语里</t>
+    <t>宁波去敏桂语里</t>
   </si>
   <si>
     <t>50905562</t>
@@ -2344,7 +2344,7 @@
     <t>50905543</t>
   </si>
   <si>
-    <t>宁波万科广源里</t>
+    <t>宁波去敏广源里</t>
   </si>
   <si>
     <t>50834965</t>
@@ -2389,7 +2389,7 @@
     <t>Z宁波泗门嘉悦城</t>
   </si>
   <si>
-    <t>B07阵地经营体</t>
+    <t>B07去敏</t>
   </si>
   <si>
     <t>50834936</t>
@@ -2638,7 +2638,7 @@
     <t>嘉兴吴越花苑</t>
   </si>
   <si>
-    <t>B08宁波东北管理中心</t>
+    <t>B08宁波东北去敏</t>
   </si>
   <si>
     <t>50834920</t>
@@ -2710,13 +2710,13 @@
     <t>50834925</t>
   </si>
   <si>
-    <t>宁波万科城</t>
+    <t>宁波去敏城</t>
   </si>
   <si>
     <t>50834926</t>
   </si>
   <si>
-    <t>宁波万科城东郡</t>
+    <t>宁波去敏城东郡</t>
   </si>
   <si>
     <t>50834915</t>
@@ -2734,7 +2734,7 @@
     <t>50900899</t>
   </si>
   <si>
-    <t>宁波万科都心里</t>
+    <t>宁波去敏都心里</t>
   </si>
   <si>
     <t>50906808</t>
@@ -2746,13 +2746,13 @@
     <t>50901106</t>
   </si>
   <si>
-    <t>万科城堂院</t>
+    <t>去敏城堂院</t>
   </si>
   <si>
     <t>50834972</t>
   </si>
   <si>
-    <t>宁波万科惇叙里</t>
+    <t>宁波去敏惇叙里</t>
   </si>
   <si>
     <t>50906826</t>
@@ -2770,7 +2770,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C01阵地经营体</t>
+    <t>C01去敏</t>
   </si>
   <si>
     <t>50835011</t>
@@ -2794,7 +2794,7 @@
     <t>50901628</t>
   </si>
   <si>
-    <t>沈阳万科城市之光清水房</t>
+    <t>沈阳去敏城市之光清水房</t>
   </si>
   <si>
     <t>50835008</t>
@@ -2923,7 +2923,7 @@
     <t>R沈阳伯爵源筑</t>
   </si>
   <si>
-    <t>C02阵地经营体</t>
+    <t>C02去敏</t>
   </si>
   <si>
     <t>50835025</t>
@@ -2965,7 +2965,7 @@
     <t>50906019</t>
   </si>
   <si>
-    <t>沈阳万科兰峰苑</t>
+    <t>沈阳去敏兰峰苑</t>
   </si>
   <si>
     <t>50835035</t>
@@ -3040,7 +3040,7 @@
     <t>沈阳金域国际</t>
   </si>
   <si>
-    <t>C03阵地经营体</t>
+    <t>C03去敏</t>
   </si>
   <si>
     <t>50835047</t>
@@ -3064,7 +3064,7 @@
     <t>50907154</t>
   </si>
   <si>
-    <t>沈阳万科明日之光</t>
+    <t>沈阳去敏明日之光</t>
   </si>
   <si>
     <t>50835043</t>
@@ -3112,7 +3112,7 @@
     <t>50835050</t>
   </si>
   <si>
-    <t>沈阳万科城</t>
+    <t>沈阳去敏城</t>
   </si>
   <si>
     <t>50835052</t>
@@ -3124,7 +3124,7 @@
     <t>50906735</t>
   </si>
   <si>
-    <t>万科仲山花园</t>
+    <t>去敏仲山花园</t>
   </si>
   <si>
     <t>50835042</t>
@@ -3139,7 +3139,7 @@
     <t>沈阳郁金香</t>
   </si>
   <si>
-    <t>C04沈鞍管理中心</t>
+    <t>C04沈鞍去敏</t>
   </si>
   <si>
     <t>50834999</t>
@@ -3157,7 +3157,7 @@
     <t>50906032</t>
   </si>
   <si>
-    <t>沈阳万科四季苑</t>
+    <t>沈阳去敏四季苑</t>
   </si>
   <si>
     <t>50835002</t>
@@ -3193,7 +3193,7 @@
     <t>50904071</t>
   </si>
   <si>
-    <t>鞍山万科金域华府</t>
+    <t>鞍山去敏金域华府</t>
   </si>
   <si>
     <t>50835003</t>
@@ -3217,7 +3217,7 @@
     <t>50835059</t>
   </si>
   <si>
-    <t>鞍山万科城</t>
+    <t>鞍山去敏城</t>
   </si>
   <si>
     <t>50835019</t>
@@ -3229,7 +3229,7 @@
     <t>50904329</t>
   </si>
   <si>
-    <t>沈阳万科西盛花园</t>
+    <t>沈阳去敏西盛花园</t>
   </si>
   <si>
     <t>50905912</t>
@@ -3265,16 +3265,16 @@
     <t>50907120</t>
   </si>
   <si>
-    <t>Q沈阳信达万科城</t>
-  </si>
-  <si>
-    <t>C05阵地经营体</t>
+    <t>Q沈阳信达去敏城</t>
+  </si>
+  <si>
+    <t>C05去敏</t>
   </si>
   <si>
     <t>50904892</t>
   </si>
   <si>
-    <t>Q大连万科百年港湾</t>
+    <t>Q大连去敏百年港湾</t>
   </si>
   <si>
     <t>50835076</t>
@@ -3286,19 +3286,19 @@
     <t>50835079</t>
   </si>
   <si>
-    <t>大连万科城市之光</t>
+    <t>大连去敏城市之光</t>
   </si>
   <si>
     <t>50900849</t>
   </si>
   <si>
-    <t>大连万科半山半海</t>
+    <t>大连去敏半山半海</t>
   </si>
   <si>
     <t>50906210</t>
   </si>
   <si>
-    <t>大连万科翡翠公园</t>
+    <t>大连去敏翡翠公园</t>
   </si>
   <si>
     <t>50835074</t>
@@ -3310,7 +3310,7 @@
     <t>50835078</t>
   </si>
   <si>
-    <t>大连万科城</t>
+    <t>大连去敏城</t>
   </si>
   <si>
     <t>50835063</t>
@@ -3334,7 +3334,7 @@
     <t>50835080</t>
   </si>
   <si>
-    <t>大连万科公园里二期</t>
+    <t>大连去敏公园里二期</t>
   </si>
   <si>
     <t>50835070</t>
@@ -3382,7 +3382,7 @@
     <t>50906971</t>
   </si>
   <si>
-    <t>大连万科八栋墅</t>
+    <t>大连去敏八栋墅</t>
   </si>
   <si>
     <t>50835066</t>
@@ -3400,13 +3400,13 @@
     <t>50906052</t>
   </si>
   <si>
-    <t>Q大连万科尚品中南</t>
+    <t>Q大连去敏尚品中南</t>
   </si>
   <si>
     <t>50906489</t>
   </si>
   <si>
-    <t>大连万科新都会</t>
+    <t>大连去敏新都会</t>
   </si>
   <si>
     <t>50835073</t>
@@ -3418,7 +3418,7 @@
     <t>50904070</t>
   </si>
   <si>
-    <t>大连万科中南府</t>
+    <t>大连去敏中南府</t>
   </si>
   <si>
     <t>50835081</t>
@@ -3430,7 +3430,7 @@
     <t>50909923</t>
   </si>
   <si>
-    <t>Q大连万科城市印象</t>
+    <t>Q大连去敏城市印象</t>
   </si>
   <si>
     <t>50835082</t>
@@ -3451,7 +3451,7 @@
     <t>K大连沿海鉴筑</t>
   </si>
   <si>
-    <t>C06阵地经营体</t>
+    <t>C06去敏</t>
   </si>
   <si>
     <t>50900898</t>
@@ -3505,7 +3505,7 @@
     <t>50906298</t>
   </si>
   <si>
-    <t>长春万科城市之光</t>
+    <t>长春去敏城市之光</t>
   </si>
   <si>
     <t>50835084</t>
@@ -3559,10 +3559,10 @@
     <t>50909334</t>
   </si>
   <si>
-    <t>长春万科繁荣里</t>
-  </si>
-  <si>
-    <t>C07长春东南管理中心</t>
+    <t>长春去敏繁荣里</t>
+  </si>
+  <si>
+    <t>C07长春东南去敏</t>
   </si>
   <si>
     <t>50836776</t>
@@ -3574,7 +3574,7 @@
     <t>50835100</t>
   </si>
   <si>
-    <t>吉林万科城一期</t>
+    <t>吉林去敏城一期</t>
   </si>
   <si>
     <t>50835102</t>
@@ -3586,37 +3586,37 @@
     <t>50835106</t>
   </si>
   <si>
-    <t>长春万科城</t>
+    <t>长春去敏城</t>
   </si>
   <si>
     <t>50836779</t>
   </si>
   <si>
-    <t>吉林万科上东区</t>
+    <t>吉林去敏上东区</t>
   </si>
   <si>
     <t>50909345</t>
   </si>
   <si>
-    <t>哈尔滨万科招商城市之光</t>
+    <t>哈尔滨去敏招商城市之光</t>
   </si>
   <si>
     <t>50904279</t>
   </si>
   <si>
-    <t>长春万科惠斯勒小镇班芙花园</t>
+    <t>长春去敏惠斯勒小镇班芙花园</t>
   </si>
   <si>
     <t>50901050</t>
   </si>
   <si>
-    <t>长春万科如园</t>
+    <t>长春去敏如园</t>
   </si>
   <si>
     <t>50835099</t>
   </si>
   <si>
-    <t>吉林万科城二期</t>
+    <t>吉林去敏城二期</t>
   </si>
   <si>
     <t>50835105</t>
@@ -3682,7 +3682,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>D01阵地经营体</t>
+    <t>D01去敏</t>
   </si>
   <si>
     <t>50900679</t>
@@ -3796,7 +3796,7 @@
     <t>50835138</t>
   </si>
   <si>
-    <t>北京万科城</t>
+    <t>北京去敏城</t>
   </si>
   <si>
     <t>50835141</t>
@@ -3901,7 +3901,7 @@
     <t>Q北京首创天阅嘉苑</t>
   </si>
   <si>
-    <t>D02北京东部管理中心</t>
+    <t>D02北京东部去敏</t>
   </si>
   <si>
     <t>50835146</t>
@@ -3913,7 +3913,7 @@
     <t>50835160</t>
   </si>
   <si>
-    <t>北京万科红</t>
+    <t>北京去敏红</t>
   </si>
   <si>
     <t>50835153</t>
@@ -4012,7 +4012,7 @@
     <t>北京润泉家苑</t>
   </si>
   <si>
-    <t>D03北京西南管理中心</t>
+    <t>D03北京西南去敏</t>
   </si>
   <si>
     <t>50835169</t>
@@ -4159,7 +4159,7 @@
     <t>北京九晟商业广场</t>
   </si>
   <si>
-    <t>D04阵地经营体</t>
+    <t>D04去敏</t>
   </si>
   <si>
     <t>50835208</t>
@@ -4243,7 +4243,7 @@
     <t>50835191</t>
   </si>
   <si>
-    <t>秦皇岛天洋万科戴河丽</t>
+    <t>秦皇岛天洋去敏戴河丽</t>
   </si>
   <si>
     <t>50903562</t>
@@ -4255,7 +4255,7 @@
     <t>50835189</t>
   </si>
   <si>
-    <t>廊坊香河五矿万科城</t>
+    <t>廊坊香河五矿去敏城</t>
   </si>
   <si>
     <t>50835197</t>
@@ -4327,7 +4327,7 @@
     <t>50909144</t>
   </si>
   <si>
-    <t>唐山万科金域缇香</t>
+    <t>唐山去敏金域缇香</t>
   </si>
   <si>
     <t>50901506</t>
@@ -4378,7 +4378,7 @@
     <t>Q天津万通新城国际</t>
   </si>
   <si>
-    <t>D05天津城区管理中心</t>
+    <t>D05天津城区去敏</t>
   </si>
   <si>
     <t>50908671</t>
@@ -4555,7 +4555,7 @@
     <t>天津新里程家园</t>
   </si>
   <si>
-    <t>D06阵地经营体</t>
+    <t>D06去敏</t>
   </si>
   <si>
     <t>50901204</t>
@@ -4579,7 +4579,7 @@
     <t>50835253</t>
   </si>
   <si>
-    <t>青岛万科城</t>
+    <t>青岛去敏城</t>
   </si>
   <si>
     <t>50835245</t>
@@ -4621,7 +4621,7 @@
     <t>50835254</t>
   </si>
   <si>
-    <t>青岛万科桃花源</t>
+    <t>青岛去敏桃花源</t>
   </si>
   <si>
     <t>50835258</t>
@@ -4651,13 +4651,13 @@
     <t>50835255</t>
   </si>
   <si>
-    <t>青岛万科紫台</t>
+    <t>青岛去敏紫台</t>
   </si>
   <si>
     <t>50903589</t>
   </si>
   <si>
-    <t>青岛万科未来城</t>
+    <t>青岛去敏未来城</t>
   </si>
   <si>
     <t>50835239</t>
@@ -4705,7 +4705,7 @@
     <t>50904000</t>
   </si>
   <si>
-    <t>青岛万科金域华府</t>
+    <t>青岛去敏金域华府</t>
   </si>
   <si>
     <t>50835243</t>
@@ -4744,7 +4744,7 @@
     <t>青岛金色城品</t>
   </si>
   <si>
-    <t>D07阵地经营体</t>
+    <t>D07去敏</t>
   </si>
   <si>
     <t>50835262</t>
@@ -4780,7 +4780,7 @@
     <t>50903741</t>
   </si>
   <si>
-    <t>烟台万科翡翠公园</t>
+    <t>烟台去敏翡翠公园</t>
   </si>
   <si>
     <t>50906410</t>
@@ -4810,7 +4810,7 @@
     <t>50835291</t>
   </si>
   <si>
-    <t>烟台万科城</t>
+    <t>烟台去敏城</t>
   </si>
   <si>
     <t>50903372</t>
@@ -4828,7 +4828,7 @@
     <t>50901092</t>
   </si>
   <si>
-    <t>青岛万科朗润园</t>
+    <t>青岛去敏朗润园</t>
   </si>
   <si>
     <t>50835276</t>
@@ -4882,7 +4882,7 @@
     <t>50907183</t>
   </si>
   <si>
-    <t>青岛万科生态新城如园</t>
+    <t>青岛去敏生态新城如园</t>
   </si>
   <si>
     <t>50835260</t>
@@ -4906,13 +4906,13 @@
     <t>50835284</t>
   </si>
   <si>
-    <t>青岛平度万科城</t>
+    <t>青岛平度去敏城</t>
   </si>
   <si>
     <t>50835285</t>
   </si>
   <si>
-    <t>青岛平度万科城观荷</t>
+    <t>青岛平度去敏城观荷</t>
   </si>
   <si>
     <t>50835288</t>
@@ -4936,7 +4936,7 @@
     <t>50907184</t>
   </si>
   <si>
-    <t>烟台万科城市之光</t>
+    <t>烟台去敏城市之光</t>
   </si>
   <si>
     <t>50836863</t>
@@ -4969,7 +4969,7 @@
     <t>烟台假日风景</t>
   </si>
   <si>
-    <t>D08济南城区管理中心</t>
+    <t>D08济南城区去敏</t>
   </si>
   <si>
     <t>50835294</t>
@@ -4981,7 +4981,7 @@
     <t>50907137</t>
   </si>
   <si>
-    <t>济南万科悦峯花园</t>
+    <t>济南去敏悦峯花园</t>
   </si>
   <si>
     <t>50901696</t>
@@ -4999,19 +4999,19 @@
     <t>50835297</t>
   </si>
   <si>
-    <t>济南万科公园里家园</t>
+    <t>济南去敏公园里家园</t>
   </si>
   <si>
     <t>50835298</t>
   </si>
   <si>
-    <t>济南万科金域国际天泰</t>
+    <t>济南去敏金域国际天泰</t>
   </si>
   <si>
     <t>50904696</t>
   </si>
   <si>
-    <t>济南万科麓城</t>
+    <t>济南去敏麓城</t>
   </si>
   <si>
     <t>50904736</t>
@@ -5023,19 +5023,19 @@
     <t>50907122</t>
   </si>
   <si>
-    <t>济南万科龙湖紫郡</t>
+    <t>济南去敏龙湖紫郡</t>
   </si>
   <si>
     <t>50907123</t>
   </si>
   <si>
-    <t>济南万科龙湖城市之光小区</t>
+    <t>济南去敏龙湖城市之光小区</t>
   </si>
   <si>
     <t>50835301</t>
   </si>
   <si>
-    <t>济南万科幸福里小区</t>
+    <t>济南去敏幸福里小区</t>
   </si>
   <si>
     <t>50907133</t>
@@ -5047,25 +5047,25 @@
     <t>50907136</t>
   </si>
   <si>
-    <t>济南万科海晏门小区</t>
+    <t>济南去敏海晏门小区</t>
   </si>
   <si>
     <t>50835296</t>
   </si>
   <si>
-    <t>济南万科城</t>
+    <t>济南去敏城</t>
   </si>
   <si>
     <t>50835299</t>
   </si>
   <si>
-    <t>济南万科天泰金域国际</t>
+    <t>济南去敏天泰金域国际</t>
   </si>
   <si>
     <t>50835300</t>
   </si>
   <si>
-    <t>济南万科新里程花园</t>
+    <t>济南去敏新里程花园</t>
   </si>
   <si>
     <t>50836788</t>
@@ -5092,19 +5092,19 @@
     <t>Q济南龙腾国际花园</t>
   </si>
   <si>
-    <t>D09太原管理中心</t>
+    <t>D09太原去敏</t>
   </si>
   <si>
     <t>50904253</t>
   </si>
   <si>
-    <t>太原万科金域蓝湾</t>
+    <t>太原去敏金域蓝湾</t>
   </si>
   <si>
     <t>50835195</t>
   </si>
   <si>
-    <t>太原万科城</t>
+    <t>太原去敏城</t>
   </si>
   <si>
     <t>50835194</t>
@@ -5146,13 +5146,13 @@
     <t>50900655</t>
   </si>
   <si>
-    <t>太原四建万科蓝山</t>
+    <t>太原四建去敏蓝山</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>E01阵地经营体</t>
+    <t>E01去敏</t>
   </si>
   <si>
     <t>50835320</t>
@@ -5335,7 +5335,7 @@
     <t>Q苏州金河雅苑</t>
   </si>
   <si>
-    <t>E02阵地经营体</t>
+    <t>E02去敏</t>
   </si>
   <si>
     <t>50835339</t>
@@ -5422,7 +5422,7 @@
     <t>Q无锡太湖威尼斯花园</t>
   </si>
   <si>
-    <t>E03阵地经营体</t>
+    <t>E03去敏</t>
   </si>
   <si>
     <t>50835361</t>
@@ -5434,7 +5434,7 @@
     <t>50835366</t>
   </si>
   <si>
-    <t>徐州万科城</t>
+    <t>徐州去敏城</t>
   </si>
   <si>
     <t>50835351</t>
@@ -5593,7 +5593,7 @@
     <t>Q南京天正滨江花园</t>
   </si>
   <si>
-    <t>E04阵地经营体</t>
+    <t>E04去敏</t>
   </si>
   <si>
     <t>50835368</t>
@@ -5629,7 +5629,7 @@
     <t>50835385</t>
   </si>
   <si>
-    <t>扬州万科城</t>
+    <t>扬州去敏城</t>
   </si>
   <si>
     <t>50835383</t>
@@ -5779,7 +5779,7 @@
     <t>50835386</t>
   </si>
   <si>
-    <t>扬州万科金色梦想花园</t>
+    <t>扬州去敏金色梦想花园</t>
   </si>
   <si>
     <t>50909908</t>
@@ -5794,7 +5794,7 @@
     <t>南京璞悦山花园</t>
   </si>
   <si>
-    <t>E05阵地经营体</t>
+    <t>E05去敏</t>
   </si>
   <si>
     <t>50905531</t>
@@ -5836,7 +5836,7 @@
     <t>50835404</t>
   </si>
   <si>
-    <t>芜湖万科城</t>
+    <t>芜湖去敏城</t>
   </si>
   <si>
     <t>50835392</t>
@@ -5866,7 +5866,7 @@
     <t>50835401</t>
   </si>
   <si>
-    <t>合肥万科城</t>
+    <t>合肥去敏城</t>
   </si>
   <si>
     <t>50835403</t>
@@ -5902,7 +5902,7 @@
     <t>50835402</t>
   </si>
   <si>
-    <t>合肥万科城市公馆</t>
+    <t>合肥去敏城市公馆</t>
   </si>
   <si>
     <t>50835391</t>
@@ -5923,7 +5923,7 @@
     <t>Q合肥国际丽晶城</t>
   </si>
   <si>
-    <t>E06苏州城东管理中心</t>
+    <t>E06苏州城东去敏</t>
   </si>
   <si>
     <t>50835421</t>
@@ -6016,7 +6016,7 @@
     <t>苏州大家花园</t>
   </si>
   <si>
-    <t>E07无锡城东管理中心</t>
+    <t>E07无锡城东去敏</t>
   </si>
   <si>
     <t>50835438</t>
@@ -6034,7 +6034,7 @@
     <t>50835453</t>
   </si>
   <si>
-    <t>无锡万科家园</t>
+    <t>无锡去敏家园</t>
   </si>
   <si>
     <t>50900707</t>
@@ -6109,7 +6109,7 @@
     <t>常州柏悦湾花园</t>
   </si>
   <si>
-    <t>E08上海高端管理中心</t>
+    <t>E08上海高端去敏</t>
   </si>
   <si>
     <t>50909145</t>
@@ -6145,7 +6145,7 @@
     <t>50835468</t>
   </si>
   <si>
-    <t>上海万科广场</t>
+    <t>上海去敏广场</t>
   </si>
   <si>
     <t>50835456</t>
@@ -6220,7 +6220,7 @@
     <t>上海红郡</t>
   </si>
   <si>
-    <t>E09上海西南管理中心</t>
+    <t>E09上海西南去敏</t>
   </si>
   <si>
     <t>50835478</t>
@@ -6238,7 +6238,7 @@
     <t>50835476</t>
   </si>
   <si>
-    <t>上海春申万科城</t>
+    <t>上海春申去敏城</t>
   </si>
   <si>
     <t>50835474</t>
@@ -6310,7 +6310,7 @@
     <t>50835487</t>
   </si>
   <si>
-    <t>上海万科海尚华庭</t>
+    <t>上海去敏海尚华庭</t>
   </si>
   <si>
     <t>50900861</t>
@@ -6361,7 +6361,7 @@
     <t>上海马桥景城品雅苑</t>
   </si>
   <si>
-    <t>E10上海东北管理中心</t>
+    <t>E10上海东北去敏</t>
   </si>
   <si>
     <t>50835492</t>
@@ -6556,7 +6556,7 @@
     <t>K上海中邦城市园（A地</t>
   </si>
   <si>
-    <t>E11上海西北管理中心</t>
+    <t>E11上海西北去敏</t>
   </si>
   <si>
     <t>50835525</t>
@@ -6604,7 +6604,7 @@
     <t>50905465</t>
   </si>
   <si>
-    <t>上海万科天空融苑</t>
+    <t>上海去敏天空融苑</t>
   </si>
   <si>
     <t>50835531</t>
@@ -6694,7 +6694,7 @@
     <t>50835534</t>
   </si>
   <si>
-    <t>上海虹桥万科润园</t>
+    <t>上海虹桥去敏润园</t>
   </si>
   <si>
     <t>50835520</t>
@@ -6715,7 +6715,7 @@
     <t>上海博望苑</t>
   </si>
   <si>
-    <t>E12阵地经营体</t>
+    <t>E12去敏</t>
   </si>
   <si>
     <t>50835358</t>
@@ -6802,7 +6802,7 @@
     <t>Q南京苏源颐和东园</t>
   </si>
   <si>
-    <t>E13阵地经营体</t>
+    <t>E13去敏</t>
   </si>
   <si>
     <t>50835419</t>
@@ -6898,7 +6898,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>F01阵地经营体</t>
+    <t>F01去敏</t>
   </si>
   <si>
     <t>50802428</t>
@@ -6985,7 +6985,7 @@
     <t>R广州大运家园</t>
   </si>
   <si>
-    <t>F02阵地经营体</t>
+    <t>F02去敏</t>
   </si>
   <si>
     <t>50802449</t>
@@ -7096,7 +7096,7 @@
     <t>广州欧泊</t>
   </si>
   <si>
-    <t>F03广州东清管理中心</t>
+    <t>F03广州东清去敏</t>
   </si>
   <si>
     <t>50802456</t>
@@ -7120,13 +7120,13 @@
     <t>50802461</t>
   </si>
   <si>
-    <t>清远万科城</t>
+    <t>清远去敏城</t>
   </si>
   <si>
     <t>50802462</t>
   </si>
   <si>
-    <t>清远万科华府</t>
+    <t>清远去敏华府</t>
   </si>
   <si>
     <t>50802454</t>
@@ -7150,7 +7150,7 @@
     <t>50802459</t>
   </si>
   <si>
-    <t>广州万科城新里程</t>
+    <t>广州去敏城新里程</t>
   </si>
   <si>
     <t>50904037</t>
@@ -7216,10 +7216,10 @@
     <t>50802458</t>
   </si>
   <si>
-    <t>广州万科城花园</t>
-  </si>
-  <si>
-    <t>F04阵地经营体</t>
+    <t>广州去敏城花园</t>
+  </si>
+  <si>
+    <t>F04去敏</t>
   </si>
   <si>
     <t>50835546</t>
@@ -7255,7 +7255,7 @@
     <t>50906556</t>
   </si>
   <si>
-    <t>万科万域华庭</t>
+    <t>去敏万域华庭</t>
   </si>
   <si>
     <t>50906213</t>
@@ -7285,7 +7285,7 @@
     <t>50907146</t>
   </si>
   <si>
-    <t>佛山万科金色雅苑</t>
+    <t>佛山去敏金色雅苑</t>
   </si>
   <si>
     <t>50908742</t>
@@ -7327,7 +7327,7 @@
     <t>50835556</t>
   </si>
   <si>
-    <t>佛山万科广场</t>
+    <t>佛山去敏广场</t>
   </si>
   <si>
     <t>50900912</t>
@@ -7345,7 +7345,7 @@
     <t>50836733</t>
   </si>
   <si>
-    <t>佛山万科金域缇香花园</t>
+    <t>佛山去敏金域缇香花园</t>
   </si>
   <si>
     <t>50835552</t>
@@ -7357,10 +7357,10 @@
     <t>50835567</t>
   </si>
   <si>
-    <t>佛山万科金色诚悦花园</t>
-  </si>
-  <si>
-    <t>F05佛山顺德管理中心</t>
+    <t>佛山去敏金色诚悦花园</t>
+  </si>
+  <si>
+    <t>F05佛山顺德去敏</t>
   </si>
   <si>
     <t>50835559</t>
@@ -7408,7 +7408,7 @@
     <t>50835555</t>
   </si>
   <si>
-    <t>佛山万科城</t>
+    <t>佛山去敏城</t>
   </si>
   <si>
     <t>50835557</t>
@@ -7432,7 +7432,7 @@
     <t>50907157</t>
   </si>
   <si>
-    <t>佛山万科美的西江悦花园</t>
+    <t>佛山去敏美的西江悦花园</t>
   </si>
   <si>
     <t>50835558</t>
@@ -7441,7 +7441,7 @@
     <t>佛山缤纷四季北区</t>
   </si>
   <si>
-    <t>F06阵地经营体</t>
+    <t>F06去敏</t>
   </si>
   <si>
     <t>50835573</t>
@@ -7489,7 +7489,7 @@
     <t>50835592</t>
   </si>
   <si>
-    <t>珠海万科城市中心</t>
+    <t>珠海去敏城市中心</t>
   </si>
   <si>
     <t>50835583</t>
@@ -7615,7 +7615,7 @@
     <t>50909005</t>
   </si>
   <si>
-    <t>珠海万科城市中心回迁区</t>
+    <t>珠海去敏城市中心回迁区</t>
   </si>
   <si>
     <t>50835569</t>
@@ -7654,7 +7654,7 @@
     <t>R珠海恒裕江山汇</t>
   </si>
   <si>
-    <t>F07长沙橘洲管理中心</t>
+    <t>F07长沙橘洲去敏</t>
   </si>
   <si>
     <t>50835601</t>
@@ -7747,7 +7747,7 @@
     <t>R长沙和庄</t>
   </si>
   <si>
-    <t>F08南宁城区管理中心</t>
+    <t>F08南宁城区去敏</t>
   </si>
   <si>
     <t>50835615</t>
@@ -7801,7 +7801,7 @@
     <t>50835619</t>
   </si>
   <si>
-    <t>南宁万科城</t>
+    <t>南宁去敏城</t>
   </si>
   <si>
     <t>50904587</t>
@@ -7819,10 +7819,10 @@
     <t>50907953</t>
   </si>
   <si>
-    <t>南宁万科公园里</t>
-  </si>
-  <si>
-    <t>F09长沙麓山管理中心</t>
+    <t>南宁去敏公园里</t>
+  </si>
+  <si>
+    <t>F09长沙麓山去敏</t>
   </si>
   <si>
     <t>50904468</t>
@@ -7840,7 +7840,7 @@
     <t>50900321</t>
   </si>
   <si>
-    <t>长沙万科城-BG</t>
+    <t>长沙去敏城-BG</t>
   </si>
   <si>
     <t>50835600</t>
@@ -7882,7 +7882,7 @@
     <t>50835609</t>
   </si>
   <si>
-    <t>长沙万科城</t>
+    <t>长沙去敏城</t>
   </si>
   <si>
     <t>50835603</t>
@@ -7900,7 +7900,7 @@
     <t>G</t>
   </si>
   <si>
-    <t>G01武汉汉口管理中心</t>
+    <t>G01武汉汉口去敏</t>
   </si>
   <si>
     <t>50835621</t>
@@ -7993,7 +7993,7 @@
     <t>武汉汉口传奇唐樾</t>
   </si>
   <si>
-    <t>G02阵地经营体</t>
+    <t>G02去敏</t>
   </si>
   <si>
     <t>50835652</t>
@@ -8086,7 +8086,7 @@
     <t>Q武汉光谷汇景</t>
   </si>
   <si>
-    <t>G03武汉汉阳管理中心</t>
+    <t>G03武汉汉阳去敏</t>
   </si>
   <si>
     <t>50835668</t>
@@ -8125,7 +8125,7 @@
     <t>Q武汉市汇博苑小区</t>
   </si>
   <si>
-    <t>G04阵地经营体</t>
+    <t>G04去敏</t>
   </si>
   <si>
     <t>50835673</t>
@@ -8137,13 +8137,13 @@
     <t>50835686</t>
   </si>
   <si>
-    <t>西安万科金域东郡</t>
+    <t>西安去敏金域东郡</t>
   </si>
   <si>
     <t>50835682</t>
   </si>
   <si>
-    <t>西安万科城</t>
+    <t>西安去敏城</t>
   </si>
   <si>
     <t>50900917</t>
@@ -8155,7 +8155,7 @@
     <t>50901358</t>
   </si>
   <si>
-    <t>中铁建万科翡翠国际</t>
+    <t>中铁建去敏翡翠国际</t>
   </si>
   <si>
     <t>50907286</t>
@@ -8173,13 +8173,13 @@
     <t>50906604</t>
   </si>
   <si>
-    <t>西安万科城润园</t>
+    <t>西安去敏城润园</t>
   </si>
   <si>
     <t>50904259</t>
   </si>
   <si>
-    <t>西安万科翡翠天誉</t>
+    <t>西安去敏翡翠天誉</t>
   </si>
   <si>
     <t>50835677</t>
@@ -8203,7 +8203,7 @@
     <t>50835684</t>
   </si>
   <si>
-    <t>西安万科东方传奇</t>
+    <t>西安去敏东方传奇</t>
   </si>
   <si>
     <t>50835688</t>
@@ -8221,7 +8221,7 @@
     <t>50835683</t>
   </si>
   <si>
-    <t>西安万科城8#地</t>
+    <t>西安去敏城8#地</t>
   </si>
   <si>
     <t>50835676</t>
@@ -8233,7 +8233,7 @@
     <t>50835685</t>
   </si>
   <si>
-    <t>西安万科金色悦郡</t>
+    <t>西安去敏金色悦郡</t>
   </si>
   <si>
     <t>50835681</t>
@@ -8242,7 +8242,7 @@
     <t>西安金域曲江</t>
   </si>
   <si>
-    <t>G05郑州城区管理中心</t>
+    <t>G05郑州城区去敏</t>
   </si>
   <si>
     <t>50835705</t>
@@ -8272,7 +8272,7 @@
     <t>50905937</t>
   </si>
   <si>
-    <t>郑州万科城琅寓物业服务中心</t>
+    <t>郑州去敏城琅寓物业服务中心</t>
   </si>
   <si>
     <t>50905453</t>
@@ -8314,13 +8314,13 @@
     <t>50907204</t>
   </si>
   <si>
-    <t>郑州万科·美景魅力之城东麓</t>
+    <t>郑州去敏·美景魅力之城东麓</t>
   </si>
   <si>
     <t>50835703</t>
   </si>
   <si>
-    <t>万科城秋棠苑</t>
+    <t>去敏城秋棠苑</t>
   </si>
   <si>
     <t>50835706</t>
@@ -8332,25 +8332,25 @@
     <t>50835709</t>
   </si>
   <si>
-    <t>郑州万科美景魅力之城</t>
+    <t>郑州去敏美景魅力之城</t>
   </si>
   <si>
     <t>50835711</t>
   </si>
   <si>
-    <t>郑州万科城锦枫苑</t>
+    <t>郑州去敏城锦枫苑</t>
   </si>
   <si>
     <t>50835712</t>
   </si>
   <si>
-    <t>郑州万科城紫兰苑</t>
+    <t>郑州去敏城紫兰苑</t>
   </si>
   <si>
     <t>50905582</t>
   </si>
   <si>
-    <t>郑州万科荣成兰园</t>
+    <t>郑州去敏荣成兰园</t>
   </si>
   <si>
     <t>50904080</t>
@@ -8362,7 +8362,7 @@
     <t>50901568</t>
   </si>
   <si>
-    <t>郑州万科城嘉兰苑物业服务中心</t>
+    <t>郑州去敏城嘉兰苑物业服务中心</t>
   </si>
   <si>
     <t>50835713</t>
@@ -8371,7 +8371,7 @@
     <t>郑州紫台紫澜苑</t>
   </si>
   <si>
-    <t>G06武汉中部管理中心</t>
+    <t>G06武汉中部去敏</t>
   </si>
   <si>
     <t>50835667</t>
@@ -8413,7 +8413,7 @@
     <t>50835637</t>
   </si>
   <si>
-    <t>武汉万科城</t>
+    <t>武汉去敏城</t>
   </si>
   <si>
     <t>50835639</t>
@@ -8431,7 +8431,7 @@
     <t>50908520</t>
   </si>
   <si>
-    <t>武汉万科金域时代</t>
+    <t>武汉去敏金域时代</t>
   </si>
   <si>
     <t>50835653</t>
@@ -8461,7 +8461,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>H01阵地经营体</t>
+    <t>H01去敏</t>
   </si>
   <si>
     <t>50835723</t>
@@ -8563,7 +8563,7 @@
     <t>50835730</t>
   </si>
   <si>
-    <t>成都万科第五城</t>
+    <t>成都去敏第五城</t>
   </si>
   <si>
     <t>50900793</t>
@@ -8593,7 +8593,7 @@
     <t>50906764</t>
   </si>
   <si>
-    <t>成都万科.翡翠公园</t>
+    <t>成都去敏.翡翠公园</t>
   </si>
   <si>
     <t>50908448</t>
@@ -8602,7 +8602,7 @@
     <t>Q成都北辰香麓</t>
   </si>
   <si>
-    <t>H02阵地经营体</t>
+    <t>H02去敏</t>
   </si>
   <si>
     <t>50835746</t>
@@ -8737,49 +8737,49 @@
     <t>成都金色家园</t>
   </si>
   <si>
-    <t>H03阵地经营体</t>
+    <t>H03去敏</t>
   </si>
   <si>
     <t>50835755</t>
   </si>
   <si>
-    <t>重庆渝园.朗润园</t>
+    <t>去敏渝园.朗润园</t>
   </si>
   <si>
     <t>50901048</t>
   </si>
   <si>
-    <t>重庆蓝澳岛</t>
+    <t>去敏蓝澳岛</t>
   </si>
   <si>
     <t>50835756</t>
   </si>
   <si>
-    <t>重庆御澜道</t>
+    <t>去敏御澜道</t>
   </si>
   <si>
     <t>50901896</t>
   </si>
   <si>
-    <t>重庆中开·熙岸A区</t>
+    <t>去敏中开·熙岸A区</t>
   </si>
   <si>
     <t>50835753</t>
   </si>
   <si>
-    <t>重庆缇香郡</t>
+    <t>去敏缇香郡</t>
   </si>
   <si>
     <t>50835749</t>
   </si>
   <si>
-    <t>CSW重庆首创光和城</t>
+    <t>CSW去敏首创光和城</t>
   </si>
   <si>
     <t>50835758</t>
   </si>
   <si>
-    <t>重庆悦湾</t>
+    <t>去敏悦湾</t>
   </si>
   <si>
     <t>50904340</t>
@@ -8791,46 +8791,46 @@
     <t>50835748</t>
   </si>
   <si>
-    <t>CSW重庆首创城</t>
+    <t>CSW去敏首创城</t>
   </si>
   <si>
     <t>50835757</t>
   </si>
   <si>
-    <t>重庆悦府.悦峰</t>
+    <t>去敏悦府.悦峰</t>
   </si>
   <si>
     <t>50909428</t>
   </si>
   <si>
-    <t>重庆金域华庭</t>
+    <t>去敏金域华庭</t>
   </si>
   <si>
     <t>50835752</t>
   </si>
   <si>
-    <t>重庆金色悦城</t>
+    <t>去敏金色悦城</t>
   </si>
   <si>
     <t>50835754</t>
   </si>
   <si>
-    <t>重庆万科城</t>
+    <t>去敏去敏城</t>
   </si>
   <si>
     <t>50906903</t>
   </si>
   <si>
-    <t>Q重庆首创嘉陵二期</t>
+    <t>Q去敏首创嘉陵二期</t>
   </si>
   <si>
     <t>50908643</t>
   </si>
   <si>
-    <t>重庆观承</t>
-  </si>
-  <si>
-    <t>H04昆明北部管理中心</t>
+    <t>去敏观承</t>
+  </si>
+  <si>
+    <t>H04昆明北部去敏</t>
   </si>
   <si>
     <t>50905966</t>
@@ -8935,7 +8935,7 @@
     <t>R昆明金色家园一期</t>
   </si>
   <si>
-    <t>H05阵地经营体</t>
+    <t>H05去敏</t>
   </si>
   <si>
     <t>50901627</t>
@@ -8953,7 +8953,7 @@
     <t>50835780</t>
   </si>
   <si>
-    <t>成都万科城</t>
+    <t>成都去敏城</t>
   </si>
   <si>
     <t>50909335</t>
@@ -9001,7 +9001,7 @@
     <t>50903605</t>
   </si>
   <si>
-    <t>成都万科理想城</t>
+    <t>成都去敏理想城</t>
   </si>
   <si>
     <t>50835784</t>
@@ -9052,76 +9052,76 @@
     <t>成都翡翠郡</t>
   </si>
   <si>
-    <t>H06重庆南部管理中心</t>
+    <t>H06去敏南部去敏</t>
   </si>
   <si>
     <t>50836619</t>
   </si>
   <si>
-    <t>Q重庆中核紫金一品</t>
+    <t>Q去敏中核紫金一品</t>
   </si>
   <si>
     <t>50835788</t>
   </si>
   <si>
-    <t>CSW重庆首创鸿恩国际</t>
+    <t>CSW去敏首创鸿恩国际</t>
   </si>
   <si>
     <t>50835796</t>
   </si>
   <si>
-    <t>重庆西九</t>
+    <t>去敏西九</t>
   </si>
   <si>
     <t>50835792</t>
   </si>
   <si>
-    <t>重庆锦程</t>
+    <t>去敏锦程</t>
   </si>
   <si>
     <t>50909252</t>
   </si>
   <si>
-    <t>重庆翡翠天麓</t>
+    <t>去敏翡翠天麓</t>
   </si>
   <si>
     <t>50906902</t>
   </si>
   <si>
-    <t>重庆瑞丰鹅岭山</t>
+    <t>去敏瑞丰鹅岭山</t>
   </si>
   <si>
     <t>50835795</t>
   </si>
   <si>
-    <t>重庆西城</t>
+    <t>去敏西城</t>
   </si>
   <si>
     <t>50835790</t>
   </si>
   <si>
-    <t>重庆金域学府·翰江</t>
+    <t>去敏金域学府·翰江</t>
   </si>
   <si>
     <t>50835791</t>
   </si>
   <si>
-    <t>重庆金域学府·翰林</t>
+    <t>去敏金域学府·翰林</t>
   </si>
   <si>
     <t>50835794</t>
   </si>
   <si>
-    <t>重庆万科锦尚</t>
+    <t>去敏去敏锦尚</t>
   </si>
   <si>
     <t>50909430</t>
   </si>
   <si>
-    <t>Q重庆北麓官邸</t>
-  </si>
-  <si>
-    <t>H07贵阳城区管理中心</t>
+    <t>Q去敏北麓官邸</t>
+  </si>
+  <si>
+    <t>H07贵阳城区去敏</t>
   </si>
   <si>
     <t>50835797</t>
@@ -9145,7 +9145,7 @@
     <t>50835806</t>
   </si>
   <si>
-    <t>贵阳万科云岩大都会</t>
+    <t>贵阳去敏云岩大都会</t>
   </si>
   <si>
     <t>50835798</t>
@@ -9163,7 +9163,7 @@
     <t>50835804</t>
   </si>
   <si>
-    <t>贵阳万科城</t>
+    <t>贵阳去敏城</t>
   </si>
   <si>
     <t>50835802</t>
@@ -9181,10 +9181,10 @@
     <t>50835805</t>
   </si>
   <si>
-    <t>贵阳万科悦城</t>
-  </si>
-  <si>
-    <t>H08昆明南部管理中心</t>
+    <t>贵阳去敏悦城</t>
+  </si>
+  <si>
+    <t>H08昆明南部去敏</t>
   </si>
   <si>
     <t>50835761</t>
@@ -9226,7 +9226,7 @@
     <t>50907974</t>
   </si>
   <si>
-    <t>昆明万科翡翠</t>
+    <t>昆明去敏翡翠</t>
   </si>
   <si>
     <t>50835760</t>
@@ -9240,11 +9240,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-10804]0.00%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-10804]0.00%"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9273,17 +9273,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9297,22 +9311,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9327,31 +9344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9371,17 +9364,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9394,6 +9387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -9401,19 +9410,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9444,13 +9444,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9462,31 +9504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9498,31 +9522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9540,19 +9564,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9564,67 +9612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9662,15 +9662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9682,6 +9673,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9701,17 +9707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9727,21 +9722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9750,153 +9730,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11708,7 +11708,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="27" ht="31" spans="1:18">
+    <row r="27" ht="16" spans="1:18">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>0.050505050505</v>
       </c>
     </row>
-    <row r="42" ht="31" spans="1:18">
+    <row r="42" ht="16" spans="1:18">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="31" spans="1:18">
+    <row r="55" ht="16" spans="1:18">
       <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0.0294117647058</v>
       </c>
     </row>
-    <row r="60" ht="31" spans="1:18">
+    <row r="60" ht="16" spans="1:18">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>0.0215827338129</v>
       </c>
     </row>
-    <row r="61" ht="31" spans="1:18">
+    <row r="61" ht="16" spans="1:18">
       <c r="A61" s="3" t="s">
         <v>18</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>0.1785714285714</v>
       </c>
     </row>
-    <row r="140" ht="31" spans="1:18">
+    <row r="140" ht="16" spans="1:18">
       <c r="A140" s="2" t="s">
         <v>18</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="158" ht="31" spans="1:18">
+    <row r="158" ht="16" spans="1:18">
       <c r="A158" s="2" t="s">
         <v>18</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="208" ht="31" spans="1:18">
+    <row r="208" ht="16" spans="1:18">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>0.0384615384615</v>
       </c>
     </row>
-    <row r="216" ht="31" spans="1:18">
+    <row r="216" ht="16" spans="1:18">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>0.0902777777777</v>
       </c>
     </row>
-    <row r="217" ht="31" spans="1:18">
+    <row r="217" ht="16" spans="1:18">
       <c r="A217" s="3" t="s">
         <v>18</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>0.103448275862</v>
       </c>
     </row>
-    <row r="244" ht="31" spans="1:18">
+    <row r="244" ht="16" spans="1:18">
       <c r="A244" s="2" t="s">
         <v>467</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>0.1481481481481</v>
       </c>
     </row>
-    <row r="245" ht="31" spans="1:18">
+    <row r="245" ht="16" spans="1:18">
       <c r="A245" s="3" t="s">
         <v>467</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="247" ht="31" spans="1:18">
+    <row r="247" ht="16" spans="1:18">
       <c r="A247" s="3" t="s">
         <v>467</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="249" ht="31" spans="1:18">
+    <row r="249" ht="16" spans="1:18">
       <c r="A249" s="3" t="s">
         <v>467</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="250" ht="31" spans="1:18">
+    <row r="250" ht="16" spans="1:18">
       <c r="A250" s="2" t="s">
         <v>467</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>0.1071428571428</v>
       </c>
     </row>
-    <row r="260" ht="31" spans="1:18">
+    <row r="260" ht="16" spans="1:18">
       <c r="A260" s="2" t="s">
         <v>467</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" ht="31" spans="1:18">
+    <row r="262" ht="16" spans="1:18">
       <c r="A262" s="2" t="s">
         <v>467</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="266" ht="31" spans="1:18">
+    <row r="266" ht="16" spans="1:18">
       <c r="A266" s="2" t="s">
         <v>467</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="269" ht="31" spans="1:18">
+    <row r="269" ht="16" spans="1:18">
       <c r="A269" s="3" t="s">
         <v>467</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="270" ht="31" spans="1:18">
+    <row r="270" ht="16" spans="1:18">
       <c r="A270" s="2" t="s">
         <v>467</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="272" ht="31" spans="1:18">
+    <row r="272" ht="16" spans="1:18">
       <c r="A272" s="2" t="s">
         <v>467</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="274" ht="31" spans="1:18">
+    <row r="274" ht="16" spans="1:18">
       <c r="A274" s="2" t="s">
         <v>467</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="277" ht="31" spans="1:18">
+    <row r="277" ht="16" spans="1:18">
       <c r="A277" s="3" t="s">
         <v>467</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="283" ht="31" spans="1:18">
+    <row r="283" ht="16" spans="1:18">
       <c r="A283" s="3" t="s">
         <v>467</v>
       </c>
@@ -35116,7 +35116,7 @@
         <v>0.021505376344</v>
       </c>
     </row>
-    <row r="445" ht="31" spans="1:18">
+    <row r="445" ht="16" spans="1:18">
       <c r="A445" s="3" t="s">
         <v>916</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" ht="31" spans="1:18">
+    <row r="453" ht="16" spans="1:18">
       <c r="A453" s="3" t="s">
         <v>916</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="455" ht="31" spans="1:18">
+    <row r="455" ht="16" spans="1:18">
       <c r="A455" s="3" t="s">
         <v>916</v>
       </c>
@@ -35788,7 +35788,7 @@
         <v>0.2105263157894</v>
       </c>
     </row>
-    <row r="457" ht="31" spans="1:18">
+    <row r="457" ht="16" spans="1:18">
       <c r="A457" s="3" t="s">
         <v>916</v>
       </c>
@@ -36068,7 +36068,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="462" ht="31" spans="1:18">
+    <row r="462" ht="16" spans="1:18">
       <c r="A462" s="2" t="s">
         <v>916</v>
       </c>
@@ -36404,7 +36404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" ht="31" spans="1:18">
+    <row r="468" ht="16" spans="1:18">
       <c r="A468" s="2" t="s">
         <v>916</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>0.051282051282</v>
       </c>
     </row>
-    <row r="469" ht="31" spans="1:18">
+    <row r="469" ht="16" spans="1:18">
       <c r="A469" s="3" t="s">
         <v>916</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>0.0135135135135</v>
       </c>
     </row>
-    <row r="482" ht="31" spans="1:18">
+    <row r="482" ht="16" spans="1:18">
       <c r="A482" s="2" t="s">
         <v>916</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" ht="31" spans="1:18">
+    <row r="484" ht="16" spans="1:18">
       <c r="A484" s="2" t="s">
         <v>916</v>
       </c>
@@ -37580,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" ht="31" spans="1:18">
+    <row r="489" ht="16" spans="1:18">
       <c r="A489" s="3" t="s">
         <v>916</v>
       </c>
@@ -37916,7 +37916,7 @@
         <v>0.2051282051282</v>
       </c>
     </row>
-    <row r="495" ht="31" spans="1:18">
+    <row r="495" ht="16" spans="1:18">
       <c r="A495" s="3" t="s">
         <v>916</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>0.0144927536231</v>
       </c>
     </row>
-    <row r="496" ht="31" spans="1:18">
+    <row r="496" ht="16" spans="1:18">
       <c r="A496" s="2" t="s">
         <v>916</v>
       </c>
@@ -38140,7 +38140,7 @@
         <v>0.0657894736842</v>
       </c>
     </row>
-    <row r="499" ht="31" spans="1:18">
+    <row r="499" ht="16" spans="1:18">
       <c r="A499" s="3" t="s">
         <v>916</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="522" ht="31" spans="1:18">
+    <row r="522" ht="16" spans="1:18">
       <c r="A522" s="2" t="s">
         <v>916</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="527" ht="31" spans="1:18">
+    <row r="527" ht="16" spans="1:18">
       <c r="A527" s="3" t="s">
         <v>916</v>
       </c>
@@ -39876,7 +39876,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="530" ht="31" spans="1:18">
+    <row r="530" ht="16" spans="1:18">
       <c r="A530" s="2" t="s">
         <v>916</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="533" ht="31" spans="1:18">
+    <row r="533" ht="16" spans="1:18">
       <c r="A533" s="3" t="s">
         <v>916</v>
       </c>
@@ -40100,7 +40100,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="534" ht="31" spans="1:18">
+    <row r="534" ht="16" spans="1:18">
       <c r="A534" s="2" t="s">
         <v>916</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" ht="31" spans="1:18">
+    <row r="546" ht="16" spans="1:18">
       <c r="A546" s="2" t="s">
         <v>916</v>
       </c>
@@ -40884,7 +40884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" ht="31" spans="1:18">
+    <row r="548" ht="16" spans="1:18">
       <c r="A548" s="2" t="s">
         <v>916</v>
       </c>
@@ -40940,7 +40940,7 @@
         <v>0.0138888888888</v>
       </c>
     </row>
-    <row r="549" ht="31" spans="1:18">
+    <row r="549" ht="16" spans="1:18">
       <c r="A549" s="3" t="s">
         <v>916</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="553" ht="31" spans="1:18">
+    <row r="553" ht="16" spans="1:18">
       <c r="A553" s="3" t="s">
         <v>916</v>
       </c>
@@ -41220,7 +41220,7 @@
         <v>0.0224719101123</v>
       </c>
     </row>
-    <row r="554" ht="31" spans="1:18">
+    <row r="554" ht="16" spans="1:18">
       <c r="A554" s="2" t="s">
         <v>916</v>
       </c>
@@ -41388,7 +41388,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="557" ht="31" spans="1:18">
+    <row r="557" ht="16" spans="1:18">
       <c r="A557" s="3" t="s">
         <v>916</v>
       </c>
@@ -41724,7 +41724,7 @@
         <v>0.0188679245283</v>
       </c>
     </row>
-    <row r="563" ht="31" spans="1:18">
+    <row r="563" ht="16" spans="1:18">
       <c r="A563" s="3" t="s">
         <v>916</v>
       </c>
@@ -41780,7 +41780,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="564" ht="31" spans="1:18">
+    <row r="564" ht="16" spans="1:18">
       <c r="A564" s="2" t="s">
         <v>916</v>
       </c>
@@ -43740,7 +43740,7 @@
         <v>0.0555555555555</v>
       </c>
     </row>
-    <row r="599" ht="31" spans="1:18">
+    <row r="599" ht="16" spans="1:18">
       <c r="A599" s="3" t="s">
         <v>1220</v>
       </c>
@@ -44132,7 +44132,7 @@
         <v>0.051282051282</v>
       </c>
     </row>
-    <row r="606" ht="31" spans="1:18">
+    <row r="606" ht="16" spans="1:18">
       <c r="A606" s="2" t="s">
         <v>1220</v>
       </c>
@@ -44188,7 +44188,7 @@
         <v>0.0263157894736</v>
       </c>
     </row>
-    <row r="607" ht="31" spans="1:18">
+    <row r="607" ht="16" spans="1:18">
       <c r="A607" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47884,7 +47884,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="673" ht="31" spans="1:18">
+    <row r="673" ht="16" spans="1:18">
       <c r="A673" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47940,7 +47940,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="674" ht="31" spans="1:18">
+    <row r="674" ht="16" spans="1:18">
       <c r="A674" s="2" t="s">
         <v>1220</v>
       </c>
@@ -47996,7 +47996,7 @@
         <v>0.1176470588235</v>
       </c>
     </row>
-    <row r="675" ht="31" spans="1:18">
+    <row r="675" ht="16" spans="1:18">
       <c r="A675" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48108,7 +48108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" ht="31" spans="1:18">
+    <row r="677" ht="16" spans="1:18">
       <c r="A677" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48388,7 +48388,7 @@
         <v>0.0285714285714</v>
       </c>
     </row>
-    <row r="682" ht="31" spans="1:18">
+    <row r="682" ht="16" spans="1:18">
       <c r="A682" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48500,7 +48500,7 @@
         <v>0.081081081081</v>
       </c>
     </row>
-    <row r="684" ht="31" spans="1:18">
+    <row r="684" ht="16" spans="1:18">
       <c r="A684" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48668,7 +48668,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="687" ht="31" spans="1:18">
+    <row r="687" ht="16" spans="1:18">
       <c r="A687" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="691" ht="31" spans="1:18">
+    <row r="691" ht="16" spans="1:18">
       <c r="A691" s="3" t="s">
         <v>1220</v>
       </c>
@@ -49172,7 +49172,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="696" ht="31" spans="1:18">
+    <row r="696" ht="16" spans="1:18">
       <c r="A696" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51300,7 +51300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" ht="31" spans="1:18">
+    <row r="734" ht="16" spans="1:18">
       <c r="A734" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51636,7 +51636,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="740" ht="31" spans="1:18">
+    <row r="740" ht="16" spans="1:18">
       <c r="A740" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51804,7 +51804,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="743" ht="31" spans="1:18">
+    <row r="743" ht="16" spans="1:18">
       <c r="A743" s="3" t="s">
         <v>1220</v>
       </c>
@@ -52420,7 +52420,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="754" ht="31" spans="1:18">
+    <row r="754" ht="16" spans="1:18">
       <c r="A754" s="2" t="s">
         <v>1220</v>
       </c>
@@ -52700,7 +52700,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="759" ht="31" spans="1:18">
+    <row r="759" ht="16" spans="1:18">
       <c r="A759" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" ht="31" spans="1:18">
+    <row r="771" ht="16" spans="1:18">
       <c r="A771" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v>0.1896551724137</v>
       </c>
     </row>
-    <row r="772" ht="31" spans="1:18">
+    <row r="772" ht="16" spans="1:18">
       <c r="A772" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54268,7 +54268,7 @@
         <v>0.0645161290322</v>
       </c>
     </row>
-    <row r="787" ht="31" spans="1:18">
+    <row r="787" ht="16" spans="1:18">
       <c r="A787" s="3" t="s">
         <v>1220</v>
       </c>
@@ -54436,7 +54436,7 @@
         <v>0.1538461538461</v>
       </c>
     </row>
-    <row r="790" ht="31" spans="1:18">
+    <row r="790" ht="16" spans="1:18">
       <c r="A790" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54828,7 +54828,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="797" ht="31" spans="1:18">
+    <row r="797" ht="16" spans="1:18">
       <c r="A797" s="3" t="s">
         <v>1220</v>
       </c>
@@ -59084,7 +59084,7 @@
         <v>0.047619047619</v>
       </c>
     </row>
-    <row r="873" ht="31" spans="1:18">
+    <row r="873" ht="16" spans="1:18">
       <c r="A873" s="3" t="s">
         <v>1710</v>
       </c>
@@ -59364,7 +59364,7 @@
         <v>0.1190476190476</v>
       </c>
     </row>
-    <row r="878" ht="31" spans="1:18">
+    <row r="878" ht="16" spans="1:18">
       <c r="A878" s="2" t="s">
         <v>1710</v>
       </c>
@@ -60876,7 +60876,7 @@
         <v>0.0263157894736</v>
       </c>
     </row>
-    <row r="905" ht="31" spans="1:18">
+    <row r="905" ht="16" spans="1:18">
       <c r="A905" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61212,7 +61212,7 @@
         <v>0.0882352941176</v>
       </c>
     </row>
-    <row r="911" ht="31" spans="1:18">
+    <row r="911" ht="16" spans="1:18">
       <c r="A911" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61324,7 +61324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" ht="31" spans="1:18">
+    <row r="913" ht="16" spans="1:18">
       <c r="A913" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61548,7 +61548,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="917" ht="31" spans="1:18">
+    <row r="917" ht="16" spans="1:18">
       <c r="A917" s="3" t="s">
         <v>1710</v>
       </c>
@@ -62500,7 +62500,7 @@
         <v>0.0731707317073</v>
       </c>
     </row>
-    <row r="934" ht="31" spans="1:18">
+    <row r="934" ht="16" spans="1:18">
       <c r="A934" s="2" t="s">
         <v>1710</v>
       </c>
@@ -62780,7 +62780,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="939" ht="31" spans="1:18">
+    <row r="939" ht="16" spans="1:18">
       <c r="A939" s="3" t="s">
         <v>1710</v>
       </c>
@@ -63060,7 +63060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="944" ht="31" spans="1:18">
+    <row r="944" ht="16" spans="1:18">
       <c r="A944" s="2" t="s">
         <v>1710</v>
       </c>
@@ -71852,7 +71852,7 @@
         <v>0.0487804878048</v>
       </c>
     </row>
-    <row r="1101" ht="31" spans="1:18">
+    <row r="1101" ht="16" spans="1:18">
       <c r="A1101" s="3" t="s">
         <v>1710</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1102" ht="31" spans="1:18">
+    <row r="1102" ht="16" spans="1:18">
       <c r="A1102" s="2" t="s">
         <v>1710</v>
       </c>
@@ -72356,7 +72356,7 @@
         <v>0.1612903225806</v>
       </c>
     </row>
-    <row r="1110" ht="31" spans="1:18">
+    <row r="1110" ht="16" spans="1:18">
       <c r="A1110" s="2" t="s">
         <v>1710</v>
       </c>
@@ -73140,7 +73140,7 @@
         <v>0.079365079365</v>
       </c>
     </row>
-    <row r="1124" ht="31" spans="1:18">
+    <row r="1124" ht="16" spans="1:18">
       <c r="A1124" s="2" t="s">
         <v>2292</v>
       </c>
@@ -73588,7 +73588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1132" ht="31" spans="1:18">
+    <row r="1132" ht="16" spans="1:18">
       <c r="A1132" s="2" t="s">
         <v>2292</v>
       </c>
@@ -74204,7 +74204,7 @@
         <v>0.0116279069767</v>
       </c>
     </row>
-    <row r="1143" ht="31" spans="1:18">
+    <row r="1143" ht="16" spans="1:18">
       <c r="A1143" s="3" t="s">
         <v>2292</v>
       </c>
@@ -79244,7 +79244,7 @@
         <v>0.1153846153846</v>
       </c>
     </row>
-    <row r="1233" ht="31" spans="1:18">
+    <row r="1233" ht="16" spans="1:18">
       <c r="A1233" s="3" t="s">
         <v>2292</v>
       </c>
@@ -82436,7 +82436,7 @@
         <v>0.0843373493975</v>
       </c>
     </row>
-    <row r="1290" ht="31" spans="1:18">
+    <row r="1290" ht="16" spans="1:18">
       <c r="A1290" s="2" t="s">
         <v>2626</v>
       </c>
@@ -82604,7 +82604,7 @@
         <v>0.0344827586206</v>
       </c>
     </row>
-    <row r="1293" ht="31" spans="1:18">
+    <row r="1293" ht="16" spans="1:18">
       <c r="A1293" s="3" t="s">
         <v>2626</v>
       </c>
@@ -82772,7 +82772,7 @@
         <v>0.0481927710843</v>
       </c>
     </row>
-    <row r="1296" ht="31" spans="1:18">
+    <row r="1296" ht="16" spans="1:18">
       <c r="A1296" s="2" t="s">
         <v>2626</v>
       </c>
@@ -83556,7 +83556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1310" ht="31" spans="1:18">
+    <row r="1310" ht="16" spans="1:18">
       <c r="A1310" s="2" t="s">
         <v>2626</v>
       </c>
@@ -83668,7 +83668,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="1312" ht="31" spans="1:18">
+    <row r="1312" ht="16" spans="1:18">
       <c r="A1312" s="2" t="s">
         <v>2626</v>
       </c>
@@ -84060,7 +84060,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="1319" ht="31" spans="1:18">
+    <row r="1319" ht="16" spans="1:18">
       <c r="A1319" s="3" t="s">
         <v>2626</v>
       </c>
@@ -84284,7 +84284,7 @@
         <v>0.2045454545454</v>
       </c>
     </row>
-    <row r="1323" ht="31" spans="1:18">
+    <row r="1323" ht="16" spans="1:18">
       <c r="A1323" s="3" t="s">
         <v>2626</v>
       </c>
@@ -84340,7 +84340,7 @@
         <v>0.0754716981132</v>
       </c>
     </row>
-    <row r="1324" ht="31" spans="1:18">
+    <row r="1324" ht="16" spans="1:18">
       <c r="A1324" s="2" t="s">
         <v>2626</v>
       </c>
@@ -86580,7 +86580,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="1364" ht="31" spans="1:18">
+    <row r="1364" ht="16" spans="1:18">
       <c r="A1364" s="2" t="s">
         <v>2813</v>
       </c>
@@ -86692,7 +86692,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="1366" ht="31" spans="1:18">
+    <row r="1366" ht="16" spans="1:18">
       <c r="A1366" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89156,7 +89156,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="1410" ht="31" spans="1:18">
+    <row r="1410" ht="16" spans="1:18">
       <c r="A1410" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89212,7 +89212,7 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="1411" ht="31" spans="1:18">
+    <row r="1411" ht="16" spans="1:18">
       <c r="A1411" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89324,7 +89324,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="1413" ht="31" spans="1:18">
+    <row r="1413" ht="16" spans="1:18">
       <c r="A1413" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89436,7 +89436,7 @@
         <v>0.0588235294117</v>
       </c>
     </row>
-    <row r="1415" ht="31" spans="1:18">
+    <row r="1415" ht="16" spans="1:18">
       <c r="A1415" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89772,7 +89772,7 @@
         <v>0.0620689655172</v>
       </c>
     </row>
-    <row r="1421" ht="31" spans="1:18">
+    <row r="1421" ht="16" spans="1:18">
       <c r="A1421" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89884,7 +89884,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="1423" ht="31" spans="1:18">
+    <row r="1423" ht="16" spans="1:18">
       <c r="A1423" s="3" t="s">
         <v>2813</v>
       </c>
@@ -90892,7 +90892,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="1441" ht="31" spans="1:18">
+    <row r="1441" ht="16" spans="1:18">
       <c r="A1441" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91004,7 +91004,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1443" ht="31" spans="1:18">
+    <row r="1443" ht="16" spans="1:18">
       <c r="A1443" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91060,7 +91060,7 @@
         <v>0.019801980198</v>
       </c>
     </row>
-    <row r="1444" ht="31" spans="1:18">
+    <row r="1444" ht="16" spans="1:18">
       <c r="A1444" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91228,7 +91228,7 @@
         <v>0.2631578947368</v>
       </c>
     </row>
-    <row r="1447" ht="31" spans="1:18">
+    <row r="1447" ht="16" spans="1:18">
       <c r="A1447" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91732,7 +91732,7 @@
         <v>0.0888888888888</v>
       </c>
     </row>
-    <row r="1456" ht="31" spans="1:18">
+    <row r="1456" ht="16" spans="1:18">
       <c r="A1456" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91900,7 +91900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1459" ht="31" spans="1:18">
+    <row r="1459" ht="16" spans="1:18">
       <c r="A1459" s="3" t="s">
         <v>2813</v>
       </c>
